--- a/runs/run063/NotionalETEOutput063.xlsx
+++ b/runs/run063/NotionalETEOutput063.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_BRAVER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_303.MISSILE_ANGERMAX0_303</t>
+    <t>MISSILE_BRAVER1_177.MISSILE_BRAVER1_177</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_BRAVER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1428.10362453192</v>
+        <v>-1544.799979764947</v>
       </c>
       <c r="J2">
-        <v>2025.207484432773</v>
+        <v>2001.018346302442</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1421.385999741901</v>
+        <v>-1438.919460925869</v>
       </c>
       <c r="J3">
-        <v>1933.821266875863</v>
+        <v>1989.687423312308</v>
       </c>
       <c r="K3">
-        <v>303.3201725854773</v>
+        <v>310.1676703701365</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1376.701429124579</v>
+        <v>-1428.136145890888</v>
       </c>
       <c r="J4">
-        <v>1813.053786812343</v>
+        <v>1964.925476411913</v>
       </c>
       <c r="K4">
-        <v>612.8398957345902</v>
+        <v>610.1265852395106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1426.672371132833</v>
+        <v>-1382.615719028219</v>
       </c>
       <c r="J5">
-        <v>1801.489224814454</v>
+        <v>1915.626854562036</v>
       </c>
       <c r="K5">
-        <v>824.2633966314595</v>
+        <v>878.0611068431516</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1429.780610662996</v>
+        <v>-1329.065613262475</v>
       </c>
       <c r="J6">
-        <v>1747.619700351825</v>
+        <v>1826.619513972559</v>
       </c>
       <c r="K6">
-        <v>1127.992365217636</v>
+        <v>1093.17034545512</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1283.91825964335</v>
+        <v>-1328.22245364707</v>
       </c>
       <c r="J7">
-        <v>1792.905586475728</v>
+        <v>1713.052697511699</v>
       </c>
       <c r="K7">
-        <v>1326.419761432344</v>
+        <v>1401.345548265314</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1353.497565762534</v>
+        <v>-1340.037034047808</v>
       </c>
       <c r="J8">
-        <v>1637.980978874438</v>
+        <v>1772.057081646301</v>
       </c>
       <c r="K8">
-        <v>1652.065293108092</v>
+        <v>1622.542841984188</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-96.49456960935171</v>
+        <v>-100.0746782890621</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1315.054284275578</v>
+        <v>-1282.426786733706</v>
       </c>
       <c r="J9">
-        <v>1672.855693611425</v>
+        <v>1725.001871801034</v>
       </c>
       <c r="K9">
-        <v>1745.538084900449</v>
+        <v>1753.026411653372</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>213.0709104539448</v>
+        <v>224.6940202921926</v>
       </c>
       <c r="G10">
-        <v>-86.77719196720585</v>
+        <v>-83.11871785175926</v>
       </c>
       <c r="H10">
-        <v>875.3175670231088</v>
+        <v>848.0928240719635</v>
       </c>
       <c r="I10">
-        <v>-1288.452108368021</v>
+        <v>-1278.927780648191</v>
       </c>
       <c r="J10">
-        <v>1615.764335134487</v>
+        <v>1621.85911011453</v>
       </c>
       <c r="K10">
-        <v>2022.372644292122</v>
+        <v>1953.883778198125</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.1163448527523</v>
+        <v>163.4518278044957</v>
       </c>
       <c r="G11">
-        <v>-67.60336060089907</v>
+        <v>-64.64900599757473</v>
       </c>
       <c r="H11">
-        <v>1054.897364662737</v>
+        <v>1092.690370973718</v>
       </c>
       <c r="I11">
-        <v>-1190.815270531406</v>
+        <v>-1176.611643209068</v>
       </c>
       <c r="J11">
-        <v>1621.589210860441</v>
+        <v>1596.893437876239</v>
       </c>
       <c r="K11">
-        <v>2234.872510903177</v>
+        <v>2147.895881734754</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.4365090633521</v>
+        <v>135.84459372476</v>
       </c>
       <c r="G12">
-        <v>-51.38425350227143</v>
+        <v>-48.69441661691113</v>
       </c>
       <c r="H12">
-        <v>1173.653486606356</v>
+        <v>1233.624252550255</v>
       </c>
       <c r="I12">
-        <v>-1147.833502205047</v>
+        <v>-1200.29044006843</v>
       </c>
       <c r="J12">
-        <v>1523.903320353027</v>
+        <v>1575.162535833998</v>
       </c>
       <c r="K12">
-        <v>2293.964455601615</v>
+        <v>2355.234585707099</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.6935355384461</v>
+        <v>123.2740016212608</v>
       </c>
       <c r="G13">
-        <v>-32.53031151323262</v>
+        <v>-32.25316826557341</v>
       </c>
       <c r="H13">
-        <v>1216.009022872074</v>
+        <v>1199.004437694513</v>
       </c>
       <c r="I13">
-        <v>-1078.49352321265</v>
+        <v>-1179.858922266458</v>
       </c>
       <c r="J13">
-        <v>1421.543807421604</v>
+        <v>1452.961496398671</v>
       </c>
       <c r="K13">
-        <v>2383.89002870585</v>
+        <v>2630.778431015923</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.3157413483502</v>
+        <v>111.622138024247</v>
       </c>
       <c r="G14">
-        <v>-17.29849569974013</v>
+        <v>-16.83839193922511</v>
       </c>
       <c r="H14">
-        <v>1302.956157239851</v>
+        <v>1340.573215581728</v>
       </c>
       <c r="I14">
-        <v>-1057.972058198158</v>
+        <v>-1109.279332516497</v>
       </c>
       <c r="J14">
-        <v>1472.76275962393</v>
+        <v>1406.471372541622</v>
       </c>
       <c r="K14">
-        <v>2577.110832859667</v>
+        <v>2665.587709918677</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.5535756697194</v>
+        <v>99.19867729108135</v>
       </c>
       <c r="G15">
-        <v>-0.8870135267408915</v>
+        <v>-0.9046063234348205</v>
       </c>
       <c r="H15">
-        <v>1314.924023811282</v>
+        <v>1357.392016020859</v>
       </c>
       <c r="I15">
-        <v>-1028.171396921398</v>
+        <v>-1096.078481768206</v>
       </c>
       <c r="J15">
-        <v>1367.623223786627</v>
+        <v>1398.935913000491</v>
       </c>
       <c r="K15">
-        <v>2861.642240577389</v>
+        <v>2714.833621061682</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.5291684334814</v>
+        <v>91.20004532720468</v>
       </c>
       <c r="G16">
-        <v>15.10564542516175</v>
+        <v>15.50525580831323</v>
       </c>
       <c r="H16">
-        <v>1479.840309440726</v>
+        <v>1426.197280479064</v>
       </c>
       <c r="I16">
-        <v>-1024.258183544385</v>
+        <v>-1007.377734779471</v>
       </c>
       <c r="J16">
-        <v>1263.786139527025</v>
+        <v>1266.653887536714</v>
       </c>
       <c r="K16">
-        <v>2955.295959282518</v>
+        <v>2957.420993296384</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.72257243652555</v>
+        <v>87.52734750413714</v>
       </c>
       <c r="G17">
-        <v>33.18897251429546</v>
+        <v>32.02779885039711</v>
       </c>
       <c r="H17">
-        <v>1485.763080567547</v>
+        <v>1514.710561758783</v>
       </c>
       <c r="I17">
-        <v>-946.0604690683549</v>
+        <v>-995.5918898920108</v>
       </c>
       <c r="J17">
-        <v>1237.626484710926</v>
+        <v>1317.613928907264</v>
       </c>
       <c r="K17">
-        <v>2839.064269853278</v>
+        <v>3098.768626064117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.90043883575761</v>
+        <v>81.66145829010128</v>
       </c>
       <c r="G18">
-        <v>47.28518485204762</v>
+        <v>49.61155981943875</v>
       </c>
       <c r="H18">
-        <v>1436.138672520229</v>
+        <v>1516.03869663271</v>
       </c>
       <c r="I18">
-        <v>-937.0941771498925</v>
+        <v>-887.1151988759394</v>
       </c>
       <c r="J18">
-        <v>1211.060920464244</v>
+        <v>1207.069984390279</v>
       </c>
       <c r="K18">
-        <v>3143.750037592135</v>
+        <v>2981.988690456881</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.92042587989566</v>
+        <v>80.24461349781515</v>
       </c>
       <c r="G19">
-        <v>67.55127707688609</v>
+        <v>67.22911160582446</v>
       </c>
       <c r="H19">
-        <v>1603.593150875845</v>
+        <v>1495.503886230884</v>
       </c>
       <c r="I19">
-        <v>-877.352992152039</v>
+        <v>-880.4203345674931</v>
       </c>
       <c r="J19">
-        <v>1178.497121186722</v>
+        <v>1209.23188732914</v>
       </c>
       <c r="K19">
-        <v>3085.233962104053</v>
+        <v>3050.991894944485</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.67848889507469</v>
+        <v>71.10567815853031</v>
       </c>
       <c r="G20">
-        <v>84.53516659645112</v>
+        <v>85.18106670886168</v>
       </c>
       <c r="H20">
-        <v>1486.367091527786</v>
+        <v>1582.124320039846</v>
       </c>
       <c r="I20">
-        <v>-828.2799557172165</v>
+        <v>-850.6343000784434</v>
       </c>
       <c r="J20">
-        <v>1179.051287218616</v>
+        <v>1136.65037484722</v>
       </c>
       <c r="K20">
-        <v>3282.300992814036</v>
+        <v>3028.960380778609</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.42056294974567</v>
+        <v>73.12562678207004</v>
       </c>
       <c r="G21">
-        <v>101.5338204715874</v>
+        <v>95.18795438461028</v>
       </c>
       <c r="H21">
-        <v>1659.528323261924</v>
+        <v>1516.120695547437</v>
       </c>
       <c r="I21">
-        <v>-767.8797784737742</v>
+        <v>-821.0304816315256</v>
       </c>
       <c r="J21">
-        <v>1027.114928755456</v>
+        <v>1062.341820123482</v>
       </c>
       <c r="K21">
-        <v>3098.990486414924</v>
+        <v>3281.516802803017</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.33761235701748</v>
+        <v>69.92871887885985</v>
       </c>
       <c r="G22">
-        <v>112.0185205253941</v>
+        <v>113.1711525024972</v>
       </c>
       <c r="H22">
-        <v>1638.817047901777</v>
+        <v>1568.312223612765</v>
       </c>
       <c r="I22">
-        <v>-765.5047129354821</v>
+        <v>-716.291741218565</v>
       </c>
       <c r="J22">
-        <v>997.8419227302701</v>
+        <v>1040.651672563207</v>
       </c>
       <c r="K22">
-        <v>3292.474581938749</v>
+        <v>3260.381519993251</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.64189480385412</v>
+        <v>68.87194114882833</v>
       </c>
       <c r="G23">
-        <v>135.8154185931185</v>
+        <v>132.9210209054909</v>
       </c>
       <c r="H23">
-        <v>1675.346065861472</v>
+        <v>1591.27412878402</v>
       </c>
       <c r="I23">
-        <v>-664.0563949170553</v>
+        <v>-724.5933494815146</v>
       </c>
       <c r="J23">
-        <v>930.1045456801469</v>
+        <v>1010.827863035269</v>
       </c>
       <c r="K23">
-        <v>3152.843572700678</v>
+        <v>3127.081882572659</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.06281569504105</v>
+        <v>62.5676792976405</v>
       </c>
       <c r="G24">
-        <v>142.0842040735842</v>
+        <v>146.453143927659</v>
       </c>
       <c r="H24">
-        <v>1648.884475032569</v>
+        <v>1592.751062653377</v>
       </c>
       <c r="I24">
-        <v>-617.5337408742851</v>
+        <v>-661.773527439703</v>
       </c>
       <c r="J24">
-        <v>971.1438587335123</v>
+        <v>895.9319095248237</v>
       </c>
       <c r="K24">
-        <v>3207.649111697493</v>
+        <v>3100.154101359301</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.6242475507152</v>
+        <v>61.01094629492906</v>
       </c>
       <c r="G25">
-        <v>164.7150026516772</v>
+        <v>170.7404988633417</v>
       </c>
       <c r="H25">
-        <v>1693.224067124384</v>
+        <v>1609.965881956646</v>
       </c>
       <c r="I25">
-        <v>-583.2006335394699</v>
+        <v>-594.1624677105258</v>
       </c>
       <c r="J25">
-        <v>837.5764090273384</v>
+        <v>874.4901841085564</v>
       </c>
       <c r="K25">
-        <v>3083.962802975288</v>
+        <v>3026.154751763355</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.57913385427777</v>
+        <v>57.81160149348804</v>
       </c>
       <c r="G26">
-        <v>185.2596650237012</v>
+        <v>184.6111998609327</v>
       </c>
       <c r="H26">
-        <v>1624.894705857163</v>
+        <v>1749.006006850344</v>
       </c>
       <c r="I26">
-        <v>-562.9269722178941</v>
+        <v>-522.8675131833517</v>
       </c>
       <c r="J26">
-        <v>830.8991005369178</v>
+        <v>805.903559252939</v>
       </c>
       <c r="K26">
-        <v>3067.722777797012</v>
+        <v>3231.77593512417</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.03125188178613</v>
+        <v>55.49230509951079</v>
       </c>
       <c r="G27">
-        <v>206.9787410225794</v>
+        <v>204.794852037879</v>
       </c>
       <c r="H27">
-        <v>1643.363605045973</v>
+        <v>1785.498580907266</v>
       </c>
       <c r="I27">
-        <v>-502.3741294101446</v>
+        <v>-506.115865351549</v>
       </c>
       <c r="J27">
-        <v>805.3529803536613</v>
+        <v>802.030285288193</v>
       </c>
       <c r="K27">
-        <v>3001.270996135852</v>
+        <v>2904.253232562524</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.90815472975324</v>
+        <v>58.67497658460882</v>
       </c>
       <c r="G28">
-        <v>207.0741499767795</v>
+        <v>222.8968613959775</v>
       </c>
       <c r="H28">
-        <v>1706.774211982242</v>
+        <v>1738.853181445389</v>
       </c>
       <c r="I28">
-        <v>-420.7263155808076</v>
+        <v>-455.4653122973908</v>
       </c>
       <c r="J28">
-        <v>738.4341572247641</v>
+        <v>745.39487772283</v>
       </c>
       <c r="K28">
-        <v>2905.879400338637</v>
+        <v>3083.196153164763</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.06981725630352</v>
+        <v>52.2617044072124</v>
       </c>
       <c r="G29">
-        <v>223.1486218404295</v>
+        <v>220.5615967294064</v>
       </c>
       <c r="H29">
-        <v>1654.09912449238</v>
+        <v>1662.670746375673</v>
       </c>
       <c r="I29">
-        <v>-390.0936271259469</v>
+        <v>-402.2058695919795</v>
       </c>
       <c r="J29">
-        <v>712.6335304272455</v>
+        <v>689.1370358713508</v>
       </c>
       <c r="K29">
-        <v>2974.536032703262</v>
+        <v>2784.743474272285</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.55384973194223</v>
+        <v>55.22765894507594</v>
       </c>
       <c r="G30">
-        <v>245.5356696651161</v>
+        <v>250.9498871792189</v>
       </c>
       <c r="H30">
-        <v>1799.021460258204</v>
+        <v>1747.561136494382</v>
       </c>
       <c r="I30">
-        <v>-325.3174702599282</v>
+        <v>-321.2946854407755</v>
       </c>
       <c r="J30">
-        <v>627.0971451533113</v>
+        <v>660.9675577232423</v>
       </c>
       <c r="K30">
-        <v>2717.909775323469</v>
+        <v>2915.494328986955</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.00425312263989</v>
+        <v>52.32457663426536</v>
       </c>
       <c r="G31">
-        <v>264.0937200593863</v>
+        <v>272.8393964700631</v>
       </c>
       <c r="H31">
-        <v>1738.393825030744</v>
+        <v>1739.50828234387</v>
       </c>
       <c r="I31">
-        <v>-270.7186297654818</v>
+        <v>-260.2320621839813</v>
       </c>
       <c r="J31">
-        <v>579.3560544355997</v>
+        <v>560.4505995587606</v>
       </c>
       <c r="K31">
-        <v>2700.378189978172</v>
+        <v>2761.481984749353</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.65237831896025</v>
+        <v>48.96979534210038</v>
       </c>
       <c r="G32">
-        <v>276.9334618463049</v>
+        <v>276.3036854964232</v>
       </c>
       <c r="H32">
-        <v>1732.639301049917</v>
+        <v>1790.559715429917</v>
       </c>
       <c r="I32">
-        <v>-215.4111950907442</v>
+        <v>-215.7525574504758</v>
       </c>
       <c r="J32">
-        <v>558.9341580173981</v>
+        <v>549.5875079957019</v>
       </c>
       <c r="K32">
-        <v>2439.747247465292</v>
+        <v>2462.945065964788</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>47.81637210285634</v>
+        <v>48.95211416686899</v>
       </c>
       <c r="G33">
-        <v>285.1651616688835</v>
+        <v>282.5251069830398</v>
       </c>
       <c r="H33">
-        <v>1786.240862382569</v>
+        <v>1749.125414888204</v>
       </c>
       <c r="I33">
-        <v>-147.1906251028703</v>
+        <v>-140.9684689347107</v>
       </c>
       <c r="J33">
-        <v>487.6265406030016</v>
+        <v>481.5207450019992</v>
       </c>
       <c r="K33">
-        <v>2466.295596596958</v>
+        <v>2340.291201713912</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.54102542034546</v>
+        <v>47.41111416586812</v>
       </c>
       <c r="G34">
-        <v>302.746722540517</v>
+        <v>315.1845025284392</v>
       </c>
       <c r="H34">
-        <v>1778.549799859601</v>
+        <v>1873.390992323153</v>
       </c>
       <c r="I34">
-        <v>-80.76228287077618</v>
+        <v>-81.76766499886084</v>
       </c>
       <c r="J34">
-        <v>455.4621215933511</v>
+        <v>443.7766165736026</v>
       </c>
       <c r="K34">
-        <v>2167.682410263093</v>
+        <v>2240.532687090364</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.64251132496238</v>
+        <v>48.81286003995616</v>
       </c>
       <c r="G35">
-        <v>313.5374755307238</v>
+        <v>342.2623077858466</v>
       </c>
       <c r="H35">
-        <v>1814.482198571294</v>
+        <v>1829.93374229128</v>
       </c>
       <c r="I35">
-        <v>-19.00099635968246</v>
+        <v>-19.64759403770321</v>
       </c>
       <c r="J35">
-        <v>402.0892935719073</v>
+        <v>404.2428729397737</v>
       </c>
       <c r="K35">
-        <v>1940.571027496145</v>
+        <v>2033.976998436875</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.063528684875</v>
+        <v>45.1944440212586</v>
       </c>
       <c r="G36">
-        <v>349.0192232062347</v>
+        <v>337.8858893121816</v>
       </c>
       <c r="H36">
-        <v>1798.892725026884</v>
+        <v>1865.389470441975</v>
       </c>
       <c r="I36">
-        <v>46.06146149923263</v>
+        <v>46.54493518679154</v>
       </c>
       <c r="J36">
-        <v>351.3554051054147</v>
+        <v>354.2182718706969</v>
       </c>
       <c r="K36">
-        <v>1850.67774068254</v>
+        <v>1920.051048726197</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.38124340777153</v>
+        <v>45.33499038375375</v>
       </c>
       <c r="G37">
-        <v>366.2452237412666</v>
+        <v>368.3684274375776</v>
       </c>
       <c r="H37">
-        <v>1815.447257274737</v>
+        <v>1901.194715873997</v>
       </c>
       <c r="I37">
-        <v>118.6807434927502</v>
+        <v>115.5017175651292</v>
       </c>
       <c r="J37">
-        <v>308.0759551677149</v>
+        <v>296.8938607703153</v>
       </c>
       <c r="K37">
-        <v>1670.88307542905</v>
+        <v>1672.200615479381</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.52733537733816</v>
+        <v>46.35584120236521</v>
       </c>
       <c r="G38">
-        <v>394.8572786287197</v>
+        <v>368.8173403488288</v>
       </c>
       <c r="H38">
-        <v>1857.648651128519</v>
+        <v>1830.095387258709</v>
       </c>
       <c r="I38">
-        <v>189.607786961031</v>
+        <v>179.5634935463158</v>
       </c>
       <c r="J38">
-        <v>242.5016333016493</v>
+        <v>241.2651309106341</v>
       </c>
       <c r="K38">
-        <v>1456.188618812727</v>
+        <v>1366.984524336662</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.06887719276359</v>
+        <v>46.96651707769264</v>
       </c>
       <c r="G39">
-        <v>406.2292224396084</v>
+        <v>382.8483011315721</v>
       </c>
       <c r="H39">
-        <v>1853.0469662721</v>
+        <v>1859.740333854982</v>
       </c>
       <c r="I39">
-        <v>248.2446120534169</v>
+        <v>246.7424304218461</v>
       </c>
       <c r="J39">
-        <v>204.0833430822767</v>
+        <v>196.8379964425272</v>
       </c>
       <c r="K39">
-        <v>1164.492211678757</v>
+        <v>1164.576342811247</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.42414572308988</v>
+        <v>45.87470209402655</v>
       </c>
       <c r="G40">
-        <v>427.0090170725271</v>
+        <v>431.6319704508755</v>
       </c>
       <c r="H40">
-        <v>1801.730416963764</v>
+        <v>1840.176943722598</v>
       </c>
       <c r="I40">
-        <v>334.2247957031666</v>
+        <v>324.1520379463355</v>
       </c>
       <c r="J40">
-        <v>145.2395979423252</v>
+        <v>147.1778831553648</v>
       </c>
       <c r="K40">
-        <v>919.0071453008161</v>
+        <v>869.3542778237818</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.71570248720835</v>
+        <v>42.42322743225096</v>
       </c>
       <c r="G41">
-        <v>414.9039283879937</v>
+        <v>426.6403018956114</v>
       </c>
       <c r="H41">
-        <v>1822.508524090258</v>
+        <v>1908.740754612603</v>
       </c>
       <c r="I41">
-        <v>385.6928633322101</v>
+        <v>384.4182680747494</v>
       </c>
       <c r="J41">
-        <v>101.3692200023027</v>
+        <v>97.62580658988608</v>
       </c>
       <c r="K41">
-        <v>614.4603278606016</v>
+        <v>638.9740267545632</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.56926525587875</v>
+        <v>43.36463853609672</v>
       </c>
       <c r="G42">
-        <v>459.5571401668528</v>
+        <v>429.3688411556357</v>
       </c>
       <c r="H42">
-        <v>1889.535558564895</v>
+        <v>1824.739454402433</v>
       </c>
       <c r="I42">
-        <v>494.5654160282481</v>
+        <v>456.8102160911122</v>
       </c>
       <c r="J42">
-        <v>53.82305403181436</v>
+        <v>53.59249508938316</v>
       </c>
       <c r="K42">
-        <v>328.9860598175127</v>
+        <v>329.9748826478385</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.20066840297517</v>
+        <v>42.08819710066015</v>
       </c>
       <c r="G43">
-        <v>453.3439061087398</v>
+        <v>452.7553363345137</v>
       </c>
       <c r="H43">
-        <v>1812.639002963441</v>
+        <v>1920.187141100241</v>
       </c>
       <c r="I43">
-        <v>548.1352506146433</v>
+        <v>571.1688326931878</v>
       </c>
       <c r="J43">
-        <v>5.287506436215216</v>
+        <v>5.070990435374442</v>
       </c>
       <c r="K43">
-        <v>33.21218637843141</v>
+        <v>32.16753697818397</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.47704344679854</v>
+        <v>43.51277526143099</v>
       </c>
       <c r="G44">
-        <v>475.2122958333434</v>
+        <v>458.0195248188463</v>
       </c>
       <c r="H44">
-        <v>1928.409827739111</v>
+        <v>1863.62855483541</v>
       </c>
       <c r="I44">
-        <v>652.0777153307091</v>
+        <v>667.7648532555263</v>
       </c>
       <c r="J44">
-        <v>-44.18011338998452</v>
+        <v>-44.03440591096545</v>
       </c>
       <c r="K44">
-        <v>-275.285138461934</v>
+        <v>-289.9085449764721</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.19087915980054</v>
+        <v>41.92237566329073</v>
       </c>
       <c r="G45">
-        <v>477.6918162990379</v>
+        <v>472.590977267339</v>
       </c>
       <c r="H45">
-        <v>2011.539892678435</v>
+        <v>1891.402502462206</v>
       </c>
       <c r="I45">
-        <v>734.917966694179</v>
+        <v>711.9015182434798</v>
       </c>
       <c r="J45">
-        <v>-93.54799682892343</v>
+        <v>-92.91072299304653</v>
       </c>
       <c r="K45">
-        <v>-613.3382168251835</v>
+        <v>-632.8401536844765</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.07578791665606</v>
+        <v>41.14268489007908</v>
       </c>
       <c r="G46">
-        <v>534.3848247563575</v>
+        <v>528.6543072774576</v>
       </c>
       <c r="H46">
-        <v>2008.934138727796</v>
+        <v>1972.003637268638</v>
       </c>
       <c r="I46">
-        <v>790.4475186353687</v>
+        <v>834.8688849500469</v>
       </c>
       <c r="J46">
-        <v>-139.8128335164809</v>
+        <v>-134.7007958559086</v>
       </c>
       <c r="K46">
-        <v>-983.9838584928247</v>
+        <v>-968.9733950802122</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.80309866471335</v>
+        <v>39.55691483175182</v>
       </c>
       <c r="G47">
-        <v>520.6549876993421</v>
+        <v>536.0618518961203</v>
       </c>
       <c r="H47">
-        <v>1968.545514202974</v>
+        <v>1981.357510922396</v>
       </c>
       <c r="I47">
-        <v>848.3774848835136</v>
+        <v>884.1929697134296</v>
       </c>
       <c r="J47">
-        <v>-188.3775146388979</v>
+        <v>-180.6942577237498</v>
       </c>
       <c r="K47">
-        <v>-1283.942513937113</v>
+        <v>-1344.886143056974</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.09272654343261</v>
+        <v>41.21080557497229</v>
       </c>
       <c r="G48">
-        <v>543.7292266640286</v>
+        <v>536.7288362834197</v>
       </c>
       <c r="H48">
-        <v>1864.658324585262</v>
+        <v>1980.908255393002</v>
       </c>
       <c r="I48">
-        <v>966.9442807100447</v>
+        <v>934.4013608339751</v>
       </c>
       <c r="J48">
-        <v>-248.620135804247</v>
+        <v>-232.7496592784565</v>
       </c>
       <c r="K48">
-        <v>-1739.670778980852</v>
+        <v>-1738.446975640993</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.44646759354526</v>
+        <v>38.78770632879346</v>
       </c>
       <c r="G49">
-        <v>535.4309969222624</v>
+        <v>575.8771544902825</v>
       </c>
       <c r="H49">
-        <v>2042.678752194736</v>
+        <v>1885.855708945705</v>
       </c>
       <c r="I49">
-        <v>1069.865970498176</v>
+        <v>1117.133759064978</v>
       </c>
       <c r="J49">
-        <v>-291.442373494613</v>
+        <v>-274.2335864459738</v>
       </c>
       <c r="K49">
-        <v>-2010.404401567039</v>
+        <v>-2057.561829912816</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.04694372999587</v>
+        <v>38.48497024949393</v>
       </c>
       <c r="G50">
-        <v>591.1697197398327</v>
+        <v>548.5846089478006</v>
       </c>
       <c r="H50">
-        <v>1909.448752991818</v>
+        <v>2053.1853692713</v>
       </c>
       <c r="I50">
-        <v>1148.423533101754</v>
+        <v>1110.709246072514</v>
       </c>
       <c r="J50">
-        <v>-324.0123946182333</v>
+        <v>-345.0667280691322</v>
       </c>
       <c r="K50">
-        <v>-2385.748807090418</v>
+        <v>-2468.42462239016</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.63952443030797</v>
+        <v>36.31563051099636</v>
       </c>
       <c r="G51">
-        <v>598.4646831829726</v>
+        <v>580.694162885845</v>
       </c>
       <c r="H51">
-        <v>2060.301584592723</v>
+        <v>1942.217794885138</v>
       </c>
       <c r="I51">
-        <v>1268.28060640639</v>
+        <v>1211.997782310342</v>
       </c>
       <c r="J51">
-        <v>-366.6411115102673</v>
+        <v>-366.3225529593586</v>
       </c>
       <c r="K51">
-        <v>-3059.498643069815</v>
+        <v>-3063.326977304921</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.15912564174098</v>
+        <v>37.09577553261851</v>
       </c>
       <c r="G52">
-        <v>594.3233727215805</v>
+        <v>580.8051162839582</v>
       </c>
       <c r="H52">
-        <v>1971.958633870132</v>
+        <v>1965.937525851942</v>
       </c>
       <c r="I52">
-        <v>1384.345666385284</v>
+        <v>1375.006246015906</v>
       </c>
       <c r="J52">
-        <v>-432.2752832107327</v>
+        <v>-447.4245689738618</v>
       </c>
       <c r="K52">
-        <v>-3447.195639995219</v>
+        <v>-3466.231598054781</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.22957491491133</v>
+        <v>37.14841994593519</v>
       </c>
       <c r="G53">
-        <v>657.4467742569431</v>
+        <v>623.4261463724899</v>
       </c>
       <c r="H53">
-        <v>2030.145704410141</v>
+        <v>2023.782121479808</v>
       </c>
       <c r="I53">
-        <v>1511.478809256942</v>
+        <v>1490.975509603029</v>
       </c>
       <c r="J53">
-        <v>-484.3345626087341</v>
+        <v>-504.5809502449064</v>
       </c>
       <c r="K53">
-        <v>-3803.406142172056</v>
+        <v>-3645.175962195603</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.19490456122247</v>
+        <v>35.89789778985053</v>
       </c>
       <c r="G54">
-        <v>651.3539417046293</v>
+        <v>650.9949531123298</v>
       </c>
       <c r="H54">
-        <v>2012.154058934248</v>
+        <v>1931.421544464761</v>
       </c>
       <c r="I54">
-        <v>1624.769787825384</v>
+        <v>1512.096234934711</v>
       </c>
       <c r="J54">
-        <v>-537.6846889437353</v>
+        <v>-514.210750531975</v>
       </c>
       <c r="K54">
-        <v>-4310.706220198949</v>
+        <v>-4373.372404880496</v>
       </c>
     </row>
   </sheetData>
